--- a/import/course.xlsx
+++ b/import/course.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="17310" windowHeight="8325" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="17304" windowHeight="8328" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="初一" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="95">
   <si>
     <t>课程名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,7 +245,74 @@
     <t>杨慧才</t>
   </si>
   <si>
+    <t>40.四大发明——火药</t>
+  </si>
+  <si>
+    <t>李 苗</t>
+  </si>
+  <si>
+    <t>65.第五章 原子学中的趣闻</t>
+  </si>
+  <si>
+    <t>孙 建</t>
+  </si>
+  <si>
+    <t>46.生活中的养生知识</t>
+  </si>
+  <si>
+    <t>林 岭</t>
+  </si>
+  <si>
+    <t>50.饮食中的化学常识</t>
+  </si>
+  <si>
+    <t>宋 婕</t>
+  </si>
+  <si>
+    <t>52.生活中的物理</t>
+  </si>
+  <si>
+    <t>郭 欣</t>
+  </si>
+  <si>
+    <t>59.钢琴入门基础教程（一）</t>
+  </si>
+  <si>
+    <t>孟艳红</t>
+  </si>
+  <si>
+    <t>艺术类</t>
+  </si>
+  <si>
+    <t>70.《几何画板》在初中数学中的应用</t>
+  </si>
+  <si>
+    <t>荆 晶</t>
+  </si>
+  <si>
+    <t>1.史蒂芬?斯皮尔伯格和他的电影</t>
+  </si>
+  <si>
+    <t>郑春梅</t>
+  </si>
+  <si>
+    <t>6.趣味文化面面观</t>
+  </si>
+  <si>
+    <t>赵 鹏</t>
+  </si>
+  <si>
+    <t>10.终身受益的权利</t>
+  </si>
+  <si>
+    <t>程艳琴</t>
+  </si>
+  <si>
     <t>第三期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -314,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,6 +390,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,19 +697,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="5" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -671,21 +741,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -708,7 +778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -722,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -742,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -762,13 +832,13 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -782,13 +852,13 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -802,13 +872,13 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -822,13 +892,13 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -842,13 +912,13 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -862,13 +932,13 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -882,13 +952,13 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -902,15 +972,15 @@
         <v>30</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -922,15 +992,15 @@
         <v>32</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -942,15 +1012,15 @@
         <v>34</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -962,15 +1032,15 @@
         <v>37</v>
       </c>
       <c r="E14">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -982,15 +1052,15 @@
         <v>39</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -1002,15 +1072,15 @@
         <v>41</v>
       </c>
       <c r="E16">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -1022,15 +1092,15 @@
         <v>43</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
@@ -1042,15 +1112,15 @@
         <v>45</v>
       </c>
       <c r="E18">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -1062,15 +1132,15 @@
         <v>47</v>
       </c>
       <c r="E19">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
@@ -1082,15 +1152,15 @@
         <v>49</v>
       </c>
       <c r="E20">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F20">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -1102,15 +1172,15 @@
         <v>51</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
@@ -1122,15 +1192,15 @@
         <v>53</v>
       </c>
       <c r="E22">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F22">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
@@ -1142,15 +1212,15 @@
         <v>55</v>
       </c>
       <c r="E23">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>56</v>
@@ -1162,15 +1232,15 @@
         <v>57</v>
       </c>
       <c r="E24">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F24">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
@@ -1182,15 +1252,15 @@
         <v>59</v>
       </c>
       <c r="E25">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F25">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>60</v>
@@ -1202,15 +1272,15 @@
         <v>61</v>
       </c>
       <c r="E26">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F26">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
         <v>62</v>
@@ -1222,15 +1292,15 @@
         <v>63</v>
       </c>
       <c r="E27">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F27">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
@@ -1242,15 +1312,15 @@
         <v>65</v>
       </c>
       <c r="E28">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
         <v>66</v>
@@ -1262,15 +1332,15 @@
         <v>67</v>
       </c>
       <c r="E29">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F29">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
         <v>68</v>
@@ -1282,15 +1352,15 @@
         <v>69</v>
       </c>
       <c r="E30">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F30">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
         <v>70</v>
@@ -1302,9 +1372,2609 @@
         <v>71</v>
       </c>
       <c r="E31">
+        <v>35</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32">
+        <v>35</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33">
+        <v>35</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34">
+        <v>35</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35">
+        <v>35</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37">
+        <v>35</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38">
+        <v>35</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39">
+        <v>35</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40">
+        <v>35</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41">
+        <v>35</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3">
+        <v>35</v>
+      </c>
+      <c r="F42" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="3">
+        <v>35</v>
+      </c>
+      <c r="F43" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="3">
+        <v>35</v>
+      </c>
+      <c r="F44" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="3">
+        <v>35</v>
+      </c>
+      <c r="F45" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="3">
+        <v>35</v>
+      </c>
+      <c r="F46" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="3">
+        <v>35</v>
+      </c>
+      <c r="F47" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="3">
+        <v>35</v>
+      </c>
+      <c r="F48" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F31">
+      <c r="C49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="3">
+        <v>35</v>
+      </c>
+      <c r="F49" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="3">
+        <v>35</v>
+      </c>
+      <c r="F50" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="3">
+        <v>35</v>
+      </c>
+      <c r="F51" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="3">
+        <v>35</v>
+      </c>
+      <c r="F52" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="3">
+        <v>35</v>
+      </c>
+      <c r="F53" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="3">
+        <v>35</v>
+      </c>
+      <c r="F54" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="3">
+        <v>35</v>
+      </c>
+      <c r="F55" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="3">
+        <v>35</v>
+      </c>
+      <c r="F56" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="3">
+        <v>35</v>
+      </c>
+      <c r="F57" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="3">
+        <v>35</v>
+      </c>
+      <c r="F58" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" s="3">
+        <v>35</v>
+      </c>
+      <c r="F59" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="3">
+        <v>35</v>
+      </c>
+      <c r="F60" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="3">
+        <v>35</v>
+      </c>
+      <c r="F61" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" s="3">
+        <v>35</v>
+      </c>
+      <c r="F62" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="3">
+        <v>35</v>
+      </c>
+      <c r="F63" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="3">
+        <v>35</v>
+      </c>
+      <c r="F64" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" s="3">
+        <v>35</v>
+      </c>
+      <c r="F65" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" s="3">
+        <v>35</v>
+      </c>
+      <c r="F66" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="3">
+        <v>35</v>
+      </c>
+      <c r="F67" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" s="3">
+        <v>35</v>
+      </c>
+      <c r="F68" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69" s="3">
+        <v>35</v>
+      </c>
+      <c r="F69" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="3">
+        <v>35</v>
+      </c>
+      <c r="F70" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="3">
+        <v>35</v>
+      </c>
+      <c r="F71" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E72" s="3">
+        <v>35</v>
+      </c>
+      <c r="F72" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73" s="3">
+        <v>35</v>
+      </c>
+      <c r="F73" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74" s="3">
+        <v>35</v>
+      </c>
+      <c r="F74" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" s="3">
+        <v>35</v>
+      </c>
+      <c r="F75" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" s="3">
+        <v>35</v>
+      </c>
+      <c r="F76" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E77" s="3">
+        <v>35</v>
+      </c>
+      <c r="F77" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" s="3">
+        <v>35</v>
+      </c>
+      <c r="F78" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E79" s="3">
+        <v>35</v>
+      </c>
+      <c r="F79" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="3">
+        <v>35</v>
+      </c>
+      <c r="F80" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81" s="3">
+        <v>35</v>
+      </c>
+      <c r="F81" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82">
+        <v>35</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83">
+        <v>35</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84">
+        <v>35</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85">
+        <v>35</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86">
+        <v>35</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87">
+        <v>35</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88">
+        <v>35</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89">
+        <v>35</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90">
+        <v>35</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91">
+        <v>35</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92">
+        <v>35</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93">
+        <v>35</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94">
+        <v>35</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95">
+        <v>35</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>41</v>
+      </c>
+      <c r="E96">
+        <v>35</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97">
+        <v>35</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>45</v>
+      </c>
+      <c r="E98">
+        <v>35</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" t="s">
+        <v>46</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>47</v>
+      </c>
+      <c r="E99">
+        <v>35</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>49</v>
+      </c>
+      <c r="E100">
+        <v>35</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
+        <v>51</v>
+      </c>
+      <c r="E101">
+        <v>35</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>53</v>
+      </c>
+      <c r="E102">
+        <v>35</v>
+      </c>
+      <c r="F102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>93</v>
+      </c>
+      <c r="B103" t="s">
+        <v>54</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" t="s">
+        <v>55</v>
+      </c>
+      <c r="E103">
+        <v>35</v>
+      </c>
+      <c r="F103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" t="s">
+        <v>56</v>
+      </c>
+      <c r="C104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D104" t="s">
+        <v>57</v>
+      </c>
+      <c r="E104">
+        <v>35</v>
+      </c>
+      <c r="F104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>93</v>
+      </c>
+      <c r="B105" t="s">
+        <v>58</v>
+      </c>
+      <c r="C105" t="s">
+        <v>35</v>
+      </c>
+      <c r="D105" t="s">
+        <v>59</v>
+      </c>
+      <c r="E105">
+        <v>35</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106" t="s">
+        <v>60</v>
+      </c>
+      <c r="C106" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" t="s">
+        <v>61</v>
+      </c>
+      <c r="E106">
+        <v>35</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>93</v>
+      </c>
+      <c r="B107" t="s">
+        <v>62</v>
+      </c>
+      <c r="C107" t="s">
+        <v>35</v>
+      </c>
+      <c r="D107" t="s">
+        <v>63</v>
+      </c>
+      <c r="E107">
+        <v>35</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>93</v>
+      </c>
+      <c r="B108" t="s">
+        <v>64</v>
+      </c>
+      <c r="C108" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" t="s">
+        <v>65</v>
+      </c>
+      <c r="E108">
+        <v>35</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>93</v>
+      </c>
+      <c r="B109" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" t="s">
+        <v>67</v>
+      </c>
+      <c r="E109">
+        <v>35</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>93</v>
+      </c>
+      <c r="B110" t="s">
+        <v>68</v>
+      </c>
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110">
+        <v>35</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>93</v>
+      </c>
+      <c r="B111" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>71</v>
+      </c>
+      <c r="E111">
+        <v>35</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>93</v>
+      </c>
+      <c r="B112" t="s">
+        <v>72</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s">
+        <v>73</v>
+      </c>
+      <c r="E112">
+        <v>35</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>93</v>
+      </c>
+      <c r="B113" t="s">
+        <v>74</v>
+      </c>
+      <c r="C113" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" t="s">
+        <v>75</v>
+      </c>
+      <c r="E113">
+        <v>35</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" t="s">
+        <v>76</v>
+      </c>
+      <c r="C114" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" t="s">
+        <v>77</v>
+      </c>
+      <c r="E114">
+        <v>35</v>
+      </c>
+      <c r="F114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" t="s">
+        <v>79</v>
+      </c>
+      <c r="E115">
+        <v>35</v>
+      </c>
+      <c r="F115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>93</v>
+      </c>
+      <c r="B116" t="s">
+        <v>80</v>
+      </c>
+      <c r="C116" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" t="s">
+        <v>81</v>
+      </c>
+      <c r="E116">
+        <v>35</v>
+      </c>
+      <c r="F116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" t="s">
+        <v>83</v>
+      </c>
+      <c r="E117">
+        <v>35</v>
+      </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>93</v>
+      </c>
+      <c r="B118" t="s">
+        <v>85</v>
+      </c>
+      <c r="C118" t="s">
+        <v>35</v>
+      </c>
+      <c r="D118" t="s">
+        <v>86</v>
+      </c>
+      <c r="E118">
+        <v>35</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>93</v>
+      </c>
+      <c r="B119" t="s">
+        <v>87</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>88</v>
+      </c>
+      <c r="E119">
+        <v>35</v>
+      </c>
+      <c r="F119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>93</v>
+      </c>
+      <c r="B120" t="s">
+        <v>89</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s">
+        <v>90</v>
+      </c>
+      <c r="E120">
+        <v>35</v>
+      </c>
+      <c r="F120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>93</v>
+      </c>
+      <c r="B121" t="s">
+        <v>91</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>92</v>
+      </c>
+      <c r="E121">
+        <v>35</v>
+      </c>
+      <c r="F121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="3">
+        <v>35</v>
+      </c>
+      <c r="F122" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="3">
+        <v>35</v>
+      </c>
+      <c r="F123" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" s="3">
+        <v>35</v>
+      </c>
+      <c r="F124" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" s="3">
+        <v>35</v>
+      </c>
+      <c r="F125" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="3">
+        <v>35</v>
+      </c>
+      <c r="F126" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" s="3">
+        <v>35</v>
+      </c>
+      <c r="F127" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" s="3">
+        <v>35</v>
+      </c>
+      <c r="F128" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129" s="3">
+        <v>35</v>
+      </c>
+      <c r="F129" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="3">
+        <v>35</v>
+      </c>
+      <c r="F130" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E131" s="3">
+        <v>35</v>
+      </c>
+      <c r="F131" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E132" s="3">
+        <v>35</v>
+      </c>
+      <c r="F132" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E133" s="3">
+        <v>35</v>
+      </c>
+      <c r="F133" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E134" s="3">
+        <v>35</v>
+      </c>
+      <c r="F134" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E135" s="3">
+        <v>35</v>
+      </c>
+      <c r="F135" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E136" s="3">
+        <v>35</v>
+      </c>
+      <c r="F136" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E137" s="3">
+        <v>35</v>
+      </c>
+      <c r="F137" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E138" s="3">
+        <v>35</v>
+      </c>
+      <c r="F138" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E139" s="3">
+        <v>35</v>
+      </c>
+      <c r="F139" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E140" s="3">
+        <v>35</v>
+      </c>
+      <c r="F140" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E141" s="3">
+        <v>35</v>
+      </c>
+      <c r="F141" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E142" s="3">
+        <v>35</v>
+      </c>
+      <c r="F142" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E143" s="3">
+        <v>35</v>
+      </c>
+      <c r="F143" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E144" s="3">
+        <v>35</v>
+      </c>
+      <c r="F144" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E145" s="3">
+        <v>35</v>
+      </c>
+      <c r="F145" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E146" s="3">
+        <v>35</v>
+      </c>
+      <c r="F146" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E147" s="3">
+        <v>35</v>
+      </c>
+      <c r="F147" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E148" s="3">
+        <v>35</v>
+      </c>
+      <c r="F148" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E149" s="3">
+        <v>35</v>
+      </c>
+      <c r="F149" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="3">
+        <v>35</v>
+      </c>
+      <c r="F150" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E151" s="3">
+        <v>35</v>
+      </c>
+      <c r="F151" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E152" s="3">
+        <v>35</v>
+      </c>
+      <c r="F152" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E153" s="3">
+        <v>35</v>
+      </c>
+      <c r="F153" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E154" s="3">
+        <v>35</v>
+      </c>
+      <c r="F154" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E155" s="3">
+        <v>35</v>
+      </c>
+      <c r="F155" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E156" s="3">
+        <v>35</v>
+      </c>
+      <c r="F156" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E157" s="3">
+        <v>35</v>
+      </c>
+      <c r="F157" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E158" s="3">
+        <v>35</v>
+      </c>
+      <c r="F158" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E159" s="3">
+        <v>35</v>
+      </c>
+      <c r="F159" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E160" s="3">
+        <v>35</v>
+      </c>
+      <c r="F160" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E161" s="3">
+        <v>35</v>
+      </c>
+      <c r="F161" s="3">
         <v>10</v>
       </c>
     </row>
